--- a/GATEWAY/A1#111#TIMSPAXX/TIMSPA/TM-Sinfonia/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#TIMSPAXX/TIMSPA/TM-Sinfonia/1.0/report-checklist.xlsx
@@ -678,10 +678,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
   </si>
   <si>
-    <t>2024-02-19T16:02:32Z</t>
-  </si>
-  <si>
-    <t>f42788afae74e627</t>
+    <t>2024-02-21T19:13:06Z</t>
+  </si>
+  <si>
+    <t>55095b3409ff43d4</t>
   </si>
   <si>
     <t>UNKNOWN_WORKFLOW_ID</t>
@@ -806,10 +806,10 @@
     <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t>2024-02-19T15:56:31Z</t>
-  </si>
-  <si>
-    <t>a5372330105317d5</t>
+    <t>2024-02-21T19:08:22Z</t>
+  </si>
+  <si>
+    <t>b581765909c5e5a1</t>
   </si>
   <si>
     <t>Errore
@@ -7899,7 +7899,7 @@
         <v>107</v>
       </c>
       <c r="F39" s="50">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="G39" t="s" s="55">
         <v>115</v>
@@ -8191,7 +8191,7 @@
         <v>125</v>
       </c>
       <c r="F47" s="50">
-        <v>45341</v>
+        <v>45343</v>
       </c>
       <c r="G47" t="s" s="55">
         <v>130</v>
